--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2671686.743171476</v>
+        <v>2653817.562972994</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>344208.5127245029</v>
+        <v>598883.5926615235</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3254445.780230133</v>
+        <v>3254445.780230134</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>208.6957123392361</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>17.61720206838995</v>
       </c>
       <c r="V3" t="n">
-        <v>68.41774016236951</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>55.71194092525318</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>36.21593518981624</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>37.18582309281558</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25.17354161800005</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>214.0077506398264</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>123.3682322779029</v>
       </c>
       <c r="C9" t="n">
-        <v>28.32775734063364</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1372,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>153.9086026595687</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>266.1454900598476</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>66.37872473225349</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>17.69584188176918</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>70.21243092196912</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>130.4708720100816</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>412.9169039459368</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>75.37827285527277</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>7.039439434684792</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>133.9734936045884</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176917</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>187.0242672958829</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,10 +1861,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>197.811943433901</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>81.73016929549621</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.015690067683183</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,7 +2098,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>118.4960408938905</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T20" t="n">
-        <v>100.8649953769208</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>199.2560040628014</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>165.0140383262331</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>152.411750818351</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,16 +2320,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>173.4985571779268</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>412.4198296272988</v>
@@ -2338,7 +2338,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I23" t="n">
-        <v>99.33258322459717</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>143.3258060921758</v>
       </c>
       <c r="T23" t="n">
-        <v>210.475920285128</v>
+        <v>142.979844586093</v>
       </c>
       <c r="U23" t="n">
         <v>251.1150202768096</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>128.0786884081141</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H25" t="n">
         <v>150.7296868732905</v>
       </c>
       <c r="I25" t="n">
-        <v>116.5612290399728</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>162.7592410435332</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>412.4198296272988</v>
       </c>
       <c r="H26" t="n">
-        <v>309.9502217094637</v>
+        <v>265.8092617923506</v>
       </c>
       <c r="I26" t="n">
         <v>99.33258322459717</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>43.64726136149707</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U26" t="n">
         <v>251.1150202768096</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>150.7296868732905</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>116.5612290399728</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>201.4801154596064</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U28" t="n">
-        <v>30.14880744855724</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>194.459192186209</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>177.8061257617175</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2812,7 +2812,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>99.33258322459717</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>257.6026889401475</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13.40155150294986</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.931832696654993</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>237.8934915394919</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>310.5420817035688</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>412.4198296272988</v>
+        <v>292.7307498072356</v>
       </c>
       <c r="H32" t="n">
         <v>309.9502217094637</v>
       </c>
       <c r="I32" t="n">
-        <v>99.33258322459717</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T32" t="n">
         <v>210.475920285128</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>25.44141259732741</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S34" t="n">
         <v>201.4801154596064</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>109.6969267282452</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,10 +3268,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>146.2512287263479</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3286,7 +3286,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>99.33258322459717</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U35" t="n">
-        <v>130.5446252133685</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>72.35628163920565</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>140.5122218294833</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U37" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>310.5420817035697</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U38" t="n">
-        <v>31.21204198876988</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>86.0940834450567</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>127.7811138116282</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,10 +3745,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>162.9087070276022</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>99.33258322459714</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T41" t="n">
-        <v>130.5446252133685</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>97.33822170543409</v>
       </c>
       <c r="I42" t="n">
-        <v>36.28891401906287</v>
+        <v>36.28891401906286</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>4.388042077384796</v>
+        <v>4.388042077384767</v>
       </c>
       <c r="S42" t="n">
         <v>143.0320641923714</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>201.4801154596064</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>181.5672906745951</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>191.1697496937054</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3994,10 +3994,10 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H44" t="n">
-        <v>309.9502217094637</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>99.33258322459714</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.5446252133685</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>130.6863434131066</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>222.4202128965329</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>210.8128219285885</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>110.8984203474524</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266.3558523848238</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="C2" t="n">
-        <v>266.3558523848238</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D2" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E2" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="X2" t="n">
-        <v>753.253405673024</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="Y2" t="n">
-        <v>509.8046290289238</v>
+        <v>784.1002736601483</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>464.5381141589534</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C3" t="n">
-        <v>464.5381141589534</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D3" t="n">
-        <v>464.5381141589534</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E3" t="n">
-        <v>305.3006591534979</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F3" t="n">
-        <v>158.7661011803829</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4415,19 +4415,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>946.2620019062019</v>
       </c>
       <c r="V3" t="n">
-        <v>464.5381141589534</v>
+        <v>946.2620019062019</v>
       </c>
       <c r="W3" t="n">
-        <v>464.5381141589534</v>
+        <v>946.2620019062019</v>
       </c>
       <c r="X3" t="n">
-        <v>464.5381141589534</v>
+        <v>738.4105017006691</v>
       </c>
       <c r="Y3" t="n">
-        <v>464.5381141589534</v>
+        <v>530.6502029357152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C5" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4597,22 +4597,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>56.84258057770322</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4658,7 +4658,7 @@
         <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4679,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>257.2326523711826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>49.38115216564972</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>710.516763498309</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>494.3473184075753</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="E8" t="n">
-        <v>494.3473184075753</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="F8" t="n">
-        <v>487.4018176583718</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>593.6552238493341</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C9" t="n">
-        <v>565.0413275456638</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D9" t="n">
-        <v>416.1069178844125</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>256.869462878957</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,13 +4889,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X9" t="n">
-        <v>761.8705608694022</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y9" t="n">
-        <v>761.8705608694022</v>
+        <v>292.8299288097498</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2452.998035652587</v>
+        <v>1698.247266113931</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.035518712175</v>
+        <v>1698.247266113931</v>
       </c>
       <c r="D11" t="n">
-        <v>1725.769820105425</v>
+        <v>1339.981567507181</v>
       </c>
       <c r="E11" t="n">
         <v>1339.981567507181</v>
@@ -5038,13 +5038,13 @@
         <v>193.68476572651</v>
       </c>
       <c r="I11" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403566</v>
+        <v>262.6316941403563</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604011</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L11" t="n">
         <v>1218.912065406599</v>
@@ -5059,7 +5059,7 @@
         <v>3025.098749216832</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556125</v>
+        <v>3454.413795556126</v>
       </c>
       <c r="Q11" t="n">
         <v>3699.589756331025</v>
@@ -5068,25 +5068,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S11" t="n">
-        <v>3699.589756331025</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T11" t="n">
-        <v>3699.589756331025</v>
+        <v>3328.574857095565</v>
       </c>
       <c r="U11" t="n">
-        <v>3544.12652132136</v>
+        <v>3074.883153840716</v>
       </c>
       <c r="V11" t="n">
-        <v>3213.063633977789</v>
+        <v>2743.820266497145</v>
       </c>
       <c r="W11" t="n">
-        <v>3213.063633977789</v>
+        <v>2743.820266497145</v>
       </c>
       <c r="X11" t="n">
-        <v>2839.597875716709</v>
+        <v>2474.986438153865</v>
       </c>
       <c r="Y11" t="n">
-        <v>2839.597875716709</v>
+        <v>2084.847106178053</v>
       </c>
     </row>
     <row r="12">
@@ -5108,7 +5108,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G12" t="n">
         <v>220.8126299914996</v>
@@ -5117,28 +5117,28 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J12" t="n">
-        <v>192.6510469835158</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K12" t="n">
-        <v>318.0086070413532</v>
+        <v>199.3493551844579</v>
       </c>
       <c r="L12" t="n">
-        <v>547.9717129097023</v>
+        <v>703.7108950505758</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.517062376806</v>
+        <v>1079.696521689603</v>
       </c>
       <c r="N12" t="n">
-        <v>1861.722754629588</v>
+        <v>1752.902213942385</v>
       </c>
       <c r="O12" t="n">
-        <v>2110.47616871355</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P12" t="n">
-        <v>2534.443937194386</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q12" t="n">
         <v>2656.336852567651</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>532.2041879374743</v>
+        <v>309.0322391995852</v>
       </c>
       <c r="C13" t="n">
-        <v>363.2680050095674</v>
+        <v>309.0322391995852</v>
       </c>
       <c r="D13" t="n">
-        <v>363.2680050095674</v>
+        <v>158.9155997872495</v>
       </c>
       <c r="E13" t="n">
-        <v>363.2680050095674</v>
+        <v>158.9155997872495</v>
       </c>
       <c r="F13" t="n">
-        <v>216.3780575116571</v>
+        <v>91.86638288598333</v>
       </c>
       <c r="G13" t="n">
-        <v>216.3780575116571</v>
+        <v>91.86638288598333</v>
       </c>
       <c r="H13" t="n">
-        <v>216.3780575116571</v>
+        <v>91.86638288598333</v>
       </c>
       <c r="I13" t="n">
-        <v>91.86638288598331</v>
+        <v>91.86638288598333</v>
       </c>
       <c r="J13" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K13" t="n">
         <v>175.03972472223</v>
@@ -5229,22 +5229,22 @@
         <v>1073.926476585963</v>
       </c>
       <c r="T13" t="n">
-        <v>1003.004829190034</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U13" t="n">
-        <v>713.8526527677141</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V13" t="n">
-        <v>713.8526527677141</v>
+        <v>819.2419883800759</v>
       </c>
       <c r="W13" t="n">
-        <v>713.8526527677141</v>
+        <v>529.8248183431153</v>
       </c>
       <c r="X13" t="n">
-        <v>713.8526527677141</v>
+        <v>529.8248183431153</v>
       </c>
       <c r="Y13" t="n">
-        <v>713.8526527677141</v>
+        <v>309.0322391995852</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2084.035518712175</v>
+        <v>2042.012130862979</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.035518712175</v>
+        <v>1673.049613922568</v>
       </c>
       <c r="D14" t="n">
-        <v>1725.769820105425</v>
+        <v>1314.783915315817</v>
       </c>
       <c r="E14" t="n">
-        <v>1339.98156750718</v>
+        <v>928.9956627175729</v>
       </c>
       <c r="F14" t="n">
         <v>928.9956627175729</v>
@@ -5305,25 +5305,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>3543.374718827853</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T14" t="n">
-        <v>3467.235049277072</v>
+        <v>3484.789894598736</v>
       </c>
       <c r="U14" t="n">
-        <v>3213.543346022223</v>
+        <v>3231.098191343887</v>
       </c>
       <c r="V14" t="n">
-        <v>3213.543346022223</v>
+        <v>2900.035304000317</v>
       </c>
       <c r="W14" t="n">
-        <v>2860.774690752109</v>
+        <v>2547.266648730202</v>
       </c>
       <c r="X14" t="n">
-        <v>2860.774690752109</v>
+        <v>2173.800890469122</v>
       </c>
       <c r="Y14" t="n">
-        <v>2470.635358776297</v>
+        <v>2173.800890469122</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>73.9917951266205</v>
       </c>
       <c r="J15" t="n">
-        <v>192.6510469835159</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K15" t="n">
-        <v>318.0086070413533</v>
+        <v>199.3493551844579</v>
       </c>
       <c r="L15" t="n">
-        <v>822.3701469074712</v>
+        <v>703.7108950505758</v>
       </c>
       <c r="M15" t="n">
-        <v>1142.705466437173</v>
+        <v>1020.338217888328</v>
       </c>
       <c r="N15" t="n">
-        <v>1815.911158689955</v>
+        <v>1693.54391014111</v>
       </c>
       <c r="O15" t="n">
-        <v>2365.347167442677</v>
+        <v>2242.979918893832</v>
       </c>
       <c r="P15" t="n">
-        <v>2586.942294054321</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q15" t="n">
         <v>2656.336852567651</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>351.704818728413</v>
+        <v>231.2189794224762</v>
       </c>
       <c r="C16" t="n">
-        <v>351.704818728413</v>
+        <v>224.1084345389562</v>
       </c>
       <c r="D16" t="n">
-        <v>351.704818728413</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E16" t="n">
-        <v>351.704818728413</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F16" t="n">
-        <v>351.704818728413</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G16" t="n">
-        <v>351.704818728413</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H16" t="n">
-        <v>216.3780575116571</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I16" t="n">
-        <v>91.8663828859833</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J16" t="n">
         <v>73.9917951266205</v>
@@ -5469,19 +5469,19 @@
         <v>640.8569951507333</v>
       </c>
       <c r="U16" t="n">
-        <v>351.704818728413</v>
+        <v>640.8569951507333</v>
       </c>
       <c r="V16" t="n">
-        <v>351.704818728413</v>
+        <v>640.8569951507333</v>
       </c>
       <c r="W16" t="n">
-        <v>351.704818728413</v>
+        <v>640.8569951507333</v>
       </c>
       <c r="X16" t="n">
-        <v>351.704818728413</v>
+        <v>412.8674442527159</v>
       </c>
       <c r="Y16" t="n">
-        <v>351.704818728413</v>
+        <v>412.8674442527159</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2334.584964297724</v>
+        <v>1947.516812454453</v>
       </c>
       <c r="C17" t="n">
-        <v>1965.622447357312</v>
+        <v>1578.554295514042</v>
       </c>
       <c r="D17" t="n">
-        <v>1607.356748750562</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.568496152317</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F17" t="n">
-        <v>810.5825913627098</v>
+        <v>809.3026921176836</v>
       </c>
       <c r="G17" t="n">
-        <v>393.4948095991372</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="H17" t="n">
-        <v>193.6847657265099</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I17" t="n">
         <v>73.99179512662052</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403566</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K17" t="n">
-        <v>666.0988071604011</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L17" t="n">
         <v>1218.912065406599</v>
@@ -5527,7 +5527,7 @@
         <v>1850.62987638991</v>
       </c>
       <c r="N17" t="n">
-        <v>2477.937544449755</v>
+        <v>2477.937544449756</v>
       </c>
       <c r="O17" t="n">
         <v>3025.098749216832</v>
@@ -5548,19 +5548,19 @@
         <v>3484.789894598737</v>
       </c>
       <c r="U17" t="n">
-        <v>3484.789894598737</v>
+        <v>3231.098191343888</v>
       </c>
       <c r="V17" t="n">
-        <v>3484.789894598737</v>
+        <v>2900.035304000317</v>
       </c>
       <c r="W17" t="n">
-        <v>3484.789894598737</v>
+        <v>2900.035304000317</v>
       </c>
       <c r="X17" t="n">
-        <v>3111.324136337657</v>
+        <v>2526.569545739238</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.184804361846</v>
+        <v>2136.430213763426</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>73.99179512662052</v>
       </c>
       <c r="J18" t="n">
-        <v>73.99179512662052</v>
+        <v>84.82809819500142</v>
       </c>
       <c r="K18" t="n">
-        <v>403.4201994324299</v>
+        <v>414.2565025008108</v>
       </c>
       <c r="L18" t="n">
-        <v>907.7817392985478</v>
+        <v>918.6180423669286</v>
       </c>
       <c r="M18" t="n">
-        <v>1548.327088765652</v>
+        <v>1559.163391834033</v>
       </c>
       <c r="N18" t="n">
-        <v>2221.532781018434</v>
+        <v>2232.369084086814</v>
       </c>
       <c r="O18" t="n">
-        <v>2473.6933749543</v>
+        <v>2232.369084086814</v>
       </c>
       <c r="P18" t="n">
         <v>2656.336852567651</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>368.794836206924</v>
+        <v>304.4606152701209</v>
       </c>
       <c r="C19" t="n">
-        <v>368.794836206924</v>
+        <v>221.9048887090136</v>
       </c>
       <c r="D19" t="n">
-        <v>368.794836206924</v>
+        <v>221.9048887090136</v>
       </c>
       <c r="E19" t="n">
-        <v>220.8817426245309</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="F19" t="n">
         <v>73.99179512662052</v>
@@ -5697,28 +5697,28 @@
         <v>1073.926476585963</v>
       </c>
       <c r="R19" t="n">
-        <v>1067.850021972142</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S19" t="n">
-        <v>1067.850021972142</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T19" t="n">
-        <v>1067.850021972142</v>
+        <v>848.2972798983279</v>
       </c>
       <c r="U19" t="n">
-        <v>1067.850021972142</v>
+        <v>559.1451034760078</v>
       </c>
       <c r="V19" t="n">
-        <v>1067.850021972142</v>
+        <v>304.4606152701209</v>
       </c>
       <c r="W19" t="n">
-        <v>778.432851935181</v>
+        <v>304.4606152701209</v>
       </c>
       <c r="X19" t="n">
-        <v>550.4433010371637</v>
+        <v>304.4606152701209</v>
       </c>
       <c r="Y19" t="n">
-        <v>550.4433010371637</v>
+        <v>304.4606152701209</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2094.732337045837</v>
+        <v>1765.812403484685</v>
       </c>
       <c r="C20" t="n">
-        <v>1725.769820105425</v>
+        <v>1765.812403484685</v>
       </c>
       <c r="D20" t="n">
-        <v>1725.769820105425</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="E20" t="n">
-        <v>1339.98156750718</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F20" t="n">
-        <v>928.9956627175729</v>
+        <v>610.7725474900825</v>
       </c>
       <c r="G20" t="n">
-        <v>511.9078809540005</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="H20" t="n">
         <v>193.6847657265099</v>
@@ -5752,13 +5752,13 @@
         <v>73.99179512662052</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403561</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K20" t="n">
-        <v>666.098807160401</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.912065406599</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M20" t="n">
         <v>1850.62987638991</v>
@@ -5767,7 +5767,7 @@
         <v>2477.937544449756</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216833</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P20" t="n">
         <v>3454.413795556126</v>
@@ -5779,25 +5779,25 @@
         <v>3699.589756331026</v>
       </c>
       <c r="S20" t="n">
-        <v>3699.589756331026</v>
+        <v>3543.374718827854</v>
       </c>
       <c r="T20" t="n">
-        <v>3597.705922616964</v>
+        <v>3328.574857095565</v>
       </c>
       <c r="U20" t="n">
-        <v>3597.705922616964</v>
+        <v>3074.883153840716</v>
       </c>
       <c r="V20" t="n">
-        <v>3597.705922616964</v>
+        <v>2743.820266497145</v>
       </c>
       <c r="W20" t="n">
-        <v>3244.93726734685</v>
+        <v>2743.820266497145</v>
       </c>
       <c r="X20" t="n">
-        <v>2871.47150908577</v>
+        <v>2542.551575524618</v>
       </c>
       <c r="Y20" t="n">
-        <v>2481.332177109959</v>
+        <v>2152.412243548807</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>73.99179512662052</v>
       </c>
       <c r="J21" t="n">
-        <v>192.6510469835159</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K21" t="n">
-        <v>522.0794512893252</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="L21" t="n">
-        <v>1026.440991155443</v>
+        <v>138.4685775537396</v>
       </c>
       <c r="M21" t="n">
-        <v>1346.776310685145</v>
+        <v>779.0139270208435</v>
       </c>
       <c r="N21" t="n">
-        <v>1854.862807688248</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O21" t="n">
-        <v>2404.29881644097</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P21" t="n">
-        <v>2586.942294054321</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q21" t="n">
         <v>2656.336852567651</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.99179512662052</v>
+        <v>691.9856622350658</v>
       </c>
       <c r="C22" t="n">
-        <v>73.99179512662052</v>
+        <v>523.0494793071589</v>
       </c>
       <c r="D22" t="n">
-        <v>73.99179512662052</v>
+        <v>523.0494793071589</v>
       </c>
       <c r="E22" t="n">
-        <v>73.99179512662052</v>
+        <v>375.1363857247658</v>
       </c>
       <c r="F22" t="n">
-        <v>73.99179512662052</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="G22" t="n">
-        <v>73.99179512662052</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="H22" t="n">
         <v>73.99179512662052</v>
@@ -5940,22 +5940,22 @@
         <v>1073.926476585963</v>
       </c>
       <c r="T22" t="n">
-        <v>907.2456297917881</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U22" t="n">
-        <v>618.093453369468</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V22" t="n">
-        <v>363.4089651635811</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="W22" t="n">
-        <v>73.99179512662052</v>
+        <v>919.9752131330831</v>
       </c>
       <c r="X22" t="n">
-        <v>73.99179512662052</v>
+        <v>691.9856622350658</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.99179512662052</v>
+        <v>691.9856622350658</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1860.618981857838</v>
+        <v>1928.796836099286</v>
       </c>
       <c r="C23" t="n">
-        <v>1860.618981857838</v>
+        <v>1559.834319158875</v>
       </c>
       <c r="D23" t="n">
-        <v>1502.353283251088</v>
+        <v>1201.568620552124</v>
       </c>
       <c r="E23" t="n">
-        <v>1327.102215394596</v>
+        <v>815.7803679538799</v>
       </c>
       <c r="F23" t="n">
-        <v>916.1163106049881</v>
+        <v>815.7803679538799</v>
       </c>
       <c r="G23" t="n">
-        <v>499.5306241127671</v>
+        <v>399.1946814616588</v>
       </c>
       <c r="H23" t="n">
-        <v>186.4495920830057</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="I23" t="n">
-        <v>86.11364943189747</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J23" t="n">
-        <v>316.5202242826244</v>
+        <v>316.5202242826243</v>
       </c>
       <c r="K23" t="n">
-        <v>782.5847574885292</v>
+        <v>782.584757488529</v>
       </c>
       <c r="L23" t="n">
-        <v>1413.055650717817</v>
+        <v>1413.055650717816</v>
       </c>
       <c r="M23" t="n">
-        <v>2131.182543644155</v>
+        <v>2131.182543644154</v>
       </c>
       <c r="N23" t="n">
         <v>2846.29748293078</v>
       </c>
       <c r="O23" t="n">
-        <v>3476.372603996239</v>
+        <v>3476.372603996238</v>
       </c>
       <c r="P23" t="n">
         <v>3976.452759614951</v>
       </c>
       <c r="Q23" t="n">
-        <v>4274.770370373408</v>
+        <v>4274.770370373407</v>
       </c>
       <c r="R23" t="n">
-        <v>4305.682471594873</v>
+        <v>4305.682471594872</v>
       </c>
       <c r="S23" t="n">
-        <v>4160.908930087625</v>
+        <v>4160.908930087624</v>
       </c>
       <c r="T23" t="n">
-        <v>3948.306990405677</v>
+        <v>4016.484844647126</v>
       </c>
       <c r="U23" t="n">
-        <v>3694.655454772536</v>
+        <v>3762.833309013985</v>
       </c>
       <c r="V23" t="n">
-        <v>3363.592567428966</v>
+        <v>3431.770421670414</v>
       </c>
       <c r="W23" t="n">
-        <v>3010.823912158851</v>
+        <v>3079.0017664003</v>
       </c>
       <c r="X23" t="n">
-        <v>2637.358153897771</v>
+        <v>2705.53600813922</v>
       </c>
       <c r="Y23" t="n">
-        <v>2247.21882192196</v>
+        <v>2315.396676163408</v>
       </c>
     </row>
     <row r="24">
@@ -6056,7 +6056,7 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2633071909824</v>
+        <v>358.2633071909823</v>
       </c>
       <c r="G24" t="n">
         <v>221.0905542041166</v>
@@ -6065,25 +6065,25 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I24" t="n">
-        <v>86.11364943189747</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J24" t="n">
-        <v>86.11364943189747</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="K24" t="n">
-        <v>211.4712094897349</v>
+        <v>458.0590076309073</v>
       </c>
       <c r="L24" t="n">
-        <v>441.434315358084</v>
+        <v>1019.589838924433</v>
       </c>
       <c r="M24" t="n">
-        <v>761.7696348877857</v>
+        <v>1726.849054986051</v>
       </c>
       <c r="N24" t="n">
-        <v>1503.454911270532</v>
+        <v>2369.252846559001</v>
       </c>
       <c r="O24" t="n">
-        <v>2115.536360929478</v>
+        <v>2369.252846559001</v>
       </c>
       <c r="P24" t="n">
         <v>2369.252846559001</v>
@@ -6123,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>356.1044735867089</v>
+        <v>870.4867047541629</v>
       </c>
       <c r="C25" t="n">
-        <v>356.1044735867089</v>
+        <v>701.550521826256</v>
       </c>
       <c r="D25" t="n">
-        <v>356.1044735867089</v>
+        <v>701.550521826256</v>
       </c>
       <c r="E25" t="n">
-        <v>356.1044735867089</v>
+        <v>553.6374282438629</v>
       </c>
       <c r="F25" t="n">
-        <v>356.1044735867089</v>
+        <v>406.7474807459525</v>
       </c>
       <c r="G25" t="n">
-        <v>356.1044735867089</v>
+        <v>238.3658583948171</v>
       </c>
       <c r="H25" t="n">
-        <v>203.8522646237892</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="I25" t="n">
-        <v>86.11364943189747</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J25" t="n">
-        <v>86.11364943189747</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="K25" t="n">
         <v>212.8076375348879</v>
       </c>
       <c r="L25" t="n">
-        <v>430.4587576962465</v>
+        <v>430.4587576962464</v>
       </c>
       <c r="M25" t="n">
-        <v>670.3304700620231</v>
+        <v>670.330470062023</v>
       </c>
       <c r="N25" t="n">
-        <v>909.9331856692337</v>
+        <v>909.9331856692336</v>
       </c>
       <c r="O25" t="n">
         <v>1115.228778841303</v>
@@ -6168,31 +6168,31 @@
         <v>1267.373942480779</v>
       </c>
       <c r="Q25" t="n">
-        <v>1289.276287324573</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="R25" t="n">
-        <v>1289.276287324573</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="S25" t="n">
-        <v>1289.276287324573</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="T25" t="n">
-        <v>1064.609405610903</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="U25" t="n">
-        <v>900.2061318295563</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="V25" t="n">
-        <v>645.5216436236694</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="W25" t="n">
-        <v>356.1044735867089</v>
+        <v>999.8591172876115</v>
       </c>
       <c r="X25" t="n">
-        <v>356.1044735867089</v>
+        <v>999.8591172876115</v>
       </c>
       <c r="Y25" t="n">
-        <v>356.1044735867089</v>
+        <v>999.8591172876115</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2029.132778750394</v>
+        <v>2395.531855340898</v>
       </c>
       <c r="C26" t="n">
-        <v>1660.170261809983</v>
+        <v>2026.569338400486</v>
       </c>
       <c r="D26" t="n">
-        <v>1301.904563203232</v>
+        <v>1668.303639793736</v>
       </c>
       <c r="E26" t="n">
-        <v>916.1163106049881</v>
+        <v>1282.515387195491</v>
       </c>
       <c r="F26" t="n">
-        <v>916.1163106049881</v>
+        <v>871.529482405884</v>
       </c>
       <c r="G26" t="n">
-        <v>499.5306241127671</v>
+        <v>454.9437959136629</v>
       </c>
       <c r="H26" t="n">
         <v>186.4495920830057</v>
@@ -6253,25 +6253,25 @@
         <v>4305.682471594873</v>
       </c>
       <c r="S26" t="n">
-        <v>4160.908930087625</v>
+        <v>4305.682471594873</v>
       </c>
       <c r="T26" t="n">
-        <v>4116.820787298234</v>
+        <v>4093.080531912926</v>
       </c>
       <c r="U26" t="n">
-        <v>3863.169251665093</v>
+        <v>3839.428996279785</v>
       </c>
       <c r="V26" t="n">
-        <v>3532.106364321522</v>
+        <v>3508.366108936214</v>
       </c>
       <c r="W26" t="n">
-        <v>3179.337709051408</v>
+        <v>3155.5974536661</v>
       </c>
       <c r="X26" t="n">
-        <v>2805.871950790328</v>
+        <v>2782.13169540502</v>
       </c>
       <c r="Y26" t="n">
-        <v>2415.732618814516</v>
+        <v>2782.13169540502</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>86.11364943189747</v>
       </c>
       <c r="J27" t="n">
-        <v>229.6488472869304</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="K27" t="n">
-        <v>355.0064073447679</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="L27" t="n">
-        <v>916.5372386382942</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="M27" t="n">
-        <v>1623.796454699911</v>
+        <v>793.3728654935146</v>
       </c>
       <c r="N27" t="n">
-        <v>1968.317110337529</v>
+        <v>1282.925139172345</v>
       </c>
       <c r="O27" t="n">
-        <v>2450.932663561885</v>
+        <v>1895.006588831291</v>
       </c>
       <c r="P27" t="n">
-        <v>2633.576141175236</v>
+        <v>2369.252846559001</v>
       </c>
       <c r="Q27" t="n">
         <v>2633.576141175236</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>969.4057764304836</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="C28" t="n">
-        <v>969.4057764304836</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="D28" t="n">
-        <v>819.2891370181478</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="E28" t="n">
-        <v>671.3760434357547</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="F28" t="n">
-        <v>524.4860959378443</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="G28" t="n">
-        <v>356.1044735867089</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="H28" t="n">
-        <v>203.8522646237892</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="I28" t="n">
         <v>86.11364943189747</v>
@@ -6411,25 +6411,25 @@
         <v>1289.276287324573</v>
       </c>
       <c r="S28" t="n">
-        <v>1289.276287324573</v>
+        <v>1085.761019183556</v>
       </c>
       <c r="T28" t="n">
-        <v>1289.276287324573</v>
+        <v>861.0941374698864</v>
       </c>
       <c r="U28" t="n">
-        <v>1258.822946467444</v>
+        <v>571.9542459195743</v>
       </c>
       <c r="V28" t="n">
-        <v>1258.822946467444</v>
+        <v>375.5308194688581</v>
       </c>
       <c r="W28" t="n">
-        <v>969.4057764304836</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="X28" t="n">
-        <v>969.4057764304836</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="Y28" t="n">
-        <v>969.4057764304836</v>
+        <v>86.11364943189747</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2339.782740888894</v>
+        <v>2250.758313833649</v>
       </c>
       <c r="C29" t="n">
-        <v>1970.820223948482</v>
+        <v>2071.156166599591</v>
       </c>
       <c r="D29" t="n">
-        <v>1612.554525341732</v>
+        <v>1712.89046799284</v>
       </c>
       <c r="E29" t="n">
-        <v>1226.766272743487</v>
+        <v>1327.102215394596</v>
       </c>
       <c r="F29" t="n">
-        <v>815.7803679538799</v>
+        <v>916.1163106049881</v>
       </c>
       <c r="G29" t="n">
-        <v>399.1946814616588</v>
+        <v>499.5306241127671</v>
       </c>
       <c r="H29" t="n">
-        <v>86.11364943189744</v>
+        <v>186.4495920830057</v>
       </c>
       <c r="I29" t="n">
         <v>86.11364943189744</v>
       </c>
       <c r="J29" t="n">
-        <v>316.5202242826243</v>
+        <v>316.5202242826242</v>
       </c>
       <c r="K29" t="n">
         <v>782.584757488529</v>
@@ -6502,13 +6502,13 @@
         <v>3363.592567428965</v>
       </c>
       <c r="W29" t="n">
-        <v>3103.387831125785</v>
+        <v>3010.82391215885</v>
       </c>
       <c r="X29" t="n">
-        <v>2729.922072864706</v>
+        <v>2637.358153897771</v>
       </c>
       <c r="Y29" t="n">
-        <v>2339.782740888894</v>
+        <v>2637.358153897771</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>86.11364943189744</v>
       </c>
       <c r="J30" t="n">
-        <v>229.6488472869304</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="K30" t="n">
-        <v>355.0064073447678</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="L30" t="n">
-        <v>584.9695132131169</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="M30" t="n">
-        <v>1292.228729274734</v>
+        <v>736.1685988925044</v>
       </c>
       <c r="N30" t="n">
-        <v>1636.749384912352</v>
+        <v>1477.853875275251</v>
       </c>
       <c r="O30" t="n">
-        <v>2248.830834571298</v>
+        <v>2089.935324934197</v>
       </c>
       <c r="P30" t="n">
         <v>2564.181582661907</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>572.2727483670874</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="C31" t="n">
-        <v>403.3365654391805</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="D31" t="n">
-        <v>403.3365654391805</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="E31" t="n">
-        <v>403.3365654391805</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="F31" t="n">
-        <v>256.4466179412702</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="G31" t="n">
-        <v>88.06499559013481</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="H31" t="n">
-        <v>88.06499559013481</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="I31" t="n">
-        <v>88.06499559013481</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J31" t="n">
         <v>86.11364943189744</v>
@@ -6651,22 +6651,22 @@
         <v>1289.276287324572</v>
       </c>
       <c r="T31" t="n">
-        <v>1289.276287324572</v>
+        <v>1064.609405610903</v>
       </c>
       <c r="U31" t="n">
-        <v>1289.276287324572</v>
+        <v>1064.609405610903</v>
       </c>
       <c r="V31" t="n">
-        <v>1034.591799118685</v>
+        <v>824.3129495104056</v>
       </c>
       <c r="W31" t="n">
-        <v>1034.591799118685</v>
+        <v>534.8957794734449</v>
       </c>
       <c r="X31" t="n">
-        <v>806.6022482206679</v>
+        <v>306.9062285754276</v>
       </c>
       <c r="Y31" t="n">
-        <v>585.8096690771378</v>
+        <v>86.11364943189744</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2395.531855340897</v>
+        <v>1860.618981857837</v>
       </c>
       <c r="C32" t="n">
-        <v>2026.569338400485</v>
+        <v>1491.656464917425</v>
       </c>
       <c r="D32" t="n">
-        <v>1712.89046799284</v>
+        <v>1491.656464917425</v>
       </c>
       <c r="E32" t="n">
-        <v>1327.102215394596</v>
+        <v>1105.868212319181</v>
       </c>
       <c r="F32" t="n">
-        <v>916.1163106049881</v>
+        <v>694.8823075295736</v>
       </c>
       <c r="G32" t="n">
-        <v>499.5306241127671</v>
+        <v>399.1946814616588</v>
       </c>
       <c r="H32" t="n">
-        <v>186.4495920830057</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="I32" t="n">
         <v>86.11364943189744</v>
@@ -6727,25 +6727,25 @@
         <v>4305.682471594872</v>
       </c>
       <c r="S32" t="n">
-        <v>4305.682471594872</v>
+        <v>4160.908930087624</v>
       </c>
       <c r="T32" t="n">
-        <v>4093.080531912925</v>
+        <v>3948.306990405677</v>
       </c>
       <c r="U32" t="n">
-        <v>3839.428996279784</v>
+        <v>3694.655454772535</v>
       </c>
       <c r="V32" t="n">
-        <v>3508.366108936213</v>
+        <v>3363.592567428965</v>
       </c>
       <c r="W32" t="n">
-        <v>3155.597453666099</v>
+        <v>3010.82391215885</v>
       </c>
       <c r="X32" t="n">
-        <v>2782.131695405019</v>
+        <v>2637.358153897771</v>
       </c>
       <c r="Y32" t="n">
-        <v>2782.131695405019</v>
+        <v>2247.218821921959</v>
       </c>
     </row>
     <row r="33">
@@ -6785,16 +6785,16 @@
         <v>458.0590076309073</v>
       </c>
       <c r="L33" t="n">
-        <v>688.0221134992564</v>
+        <v>1019.589838924433</v>
       </c>
       <c r="M33" t="n">
-        <v>1395.281329560873</v>
+        <v>1726.849054986051</v>
       </c>
       <c r="N33" t="n">
-        <v>2132.784690964594</v>
+        <v>2468.534331368797</v>
       </c>
       <c r="O33" t="n">
-        <v>2381.538105048556</v>
+        <v>2468.534331368797</v>
       </c>
       <c r="P33" t="n">
         <v>2564.181582661907</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>549.8528734401078</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="C34" t="n">
-        <v>380.9166905122009</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="D34" t="n">
-        <v>380.9166905122009</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="E34" t="n">
-        <v>233.0035969298078</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="F34" t="n">
         <v>86.11364943189744</v>
@@ -6882,28 +6882,28 @@
         <v>1289.276287324572</v>
       </c>
       <c r="R34" t="n">
-        <v>1263.577890761615</v>
+        <v>1168.92515553596</v>
       </c>
       <c r="S34" t="n">
-        <v>1060.062622620599</v>
+        <v>965.4098873949431</v>
       </c>
       <c r="T34" t="n">
-        <v>1060.062622620599</v>
+        <v>740.7430056812734</v>
       </c>
       <c r="U34" t="n">
-        <v>1060.062622620599</v>
+        <v>451.6031141309613</v>
       </c>
       <c r="V34" t="n">
-        <v>1060.062622620599</v>
+        <v>196.9186259250744</v>
       </c>
       <c r="W34" t="n">
-        <v>770.645452583638</v>
+        <v>196.9186259250744</v>
       </c>
       <c r="X34" t="n">
-        <v>770.645452583638</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="Y34" t="n">
-        <v>549.8528734401078</v>
+        <v>86.11364943189744</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2339.782740888894</v>
+        <v>1860.618981857838</v>
       </c>
       <c r="C35" t="n">
-        <v>1970.820223948482</v>
+        <v>1860.618981857838</v>
       </c>
       <c r="D35" t="n">
-        <v>1612.554525341732</v>
+        <v>1712.89046799284</v>
       </c>
       <c r="E35" t="n">
-        <v>1226.766272743487</v>
+        <v>1327.102215394596</v>
       </c>
       <c r="F35" t="n">
-        <v>815.7803679538799</v>
+        <v>916.1163106049881</v>
       </c>
       <c r="G35" t="n">
-        <v>399.1946814616589</v>
+        <v>499.5306241127671</v>
       </c>
       <c r="H35" t="n">
-        <v>86.11364943189747</v>
+        <v>186.4495920830057</v>
       </c>
       <c r="I35" t="n">
         <v>86.11364943189747</v>
@@ -6964,25 +6964,25 @@
         <v>4305.682471594873</v>
       </c>
       <c r="S35" t="n">
-        <v>4305.682471594873</v>
+        <v>4160.908930087625</v>
       </c>
       <c r="T35" t="n">
-        <v>4305.682471594873</v>
+        <v>3948.306990405677</v>
       </c>
       <c r="U35" t="n">
-        <v>4173.819213803592</v>
+        <v>3694.655454772536</v>
       </c>
       <c r="V35" t="n">
-        <v>3842.756326460022</v>
+        <v>3363.592567428966</v>
       </c>
       <c r="W35" t="n">
-        <v>3489.987671189907</v>
+        <v>3010.823912158851</v>
       </c>
       <c r="X35" t="n">
-        <v>3116.521912928828</v>
+        <v>2637.358153897771</v>
       </c>
       <c r="Y35" t="n">
-        <v>2726.382580953016</v>
+        <v>2247.21882192196</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2659.529089531569</v>
+        <v>987.4227591119312</v>
       </c>
       <c r="C36" t="n">
-        <v>2485.076060250442</v>
+        <v>812.9697298308042</v>
       </c>
       <c r="D36" t="n">
-        <v>2336.141650589191</v>
+        <v>664.035320169553</v>
       </c>
       <c r="E36" t="n">
-        <v>2176.904195583735</v>
+        <v>504.7978651640974</v>
       </c>
       <c r="F36" t="n">
-        <v>2030.36963761062</v>
+        <v>358.2633071909824</v>
       </c>
       <c r="G36" t="n">
-        <v>1893.196884623754</v>
+        <v>221.0905542041166</v>
       </c>
       <c r="H36" t="n">
-        <v>1794.875448557659</v>
+        <v>122.7691181380216</v>
       </c>
       <c r="I36" t="n">
-        <v>1758.219979851535</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J36" t="n">
-        <v>1758.219979851535</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="K36" t="n">
-        <v>2130.165338050545</v>
+        <v>374.3474033533843</v>
       </c>
       <c r="L36" t="n">
-        <v>2360.128443918894</v>
+        <v>935.8782346469105</v>
       </c>
       <c r="M36" t="n">
-        <v>3067.387659980511</v>
+        <v>1643.137450708528</v>
       </c>
       <c r="N36" t="n">
-        <v>3411.908315618129</v>
+        <v>2384.822727091274</v>
       </c>
       <c r="O36" t="n">
-        <v>4023.989765277075</v>
+        <v>2633.576141175236</v>
       </c>
       <c r="P36" t="n">
-        <v>4236.287913081544</v>
+        <v>2633.576141175236</v>
       </c>
       <c r="Q36" t="n">
-        <v>4305.682471594873</v>
+        <v>2633.576141175236</v>
       </c>
       <c r="R36" t="n">
-        <v>4301.250105860141</v>
+        <v>2629.143775440504</v>
       </c>
       <c r="S36" t="n">
-        <v>4156.773273342595</v>
+        <v>2484.666942922957</v>
       </c>
       <c r="T36" t="n">
-        <v>3960.866803980513</v>
+        <v>2288.760473560875</v>
       </c>
       <c r="U36" t="n">
-        <v>3732.745690482068</v>
+        <v>2060.63936006243</v>
       </c>
       <c r="V36" t="n">
-        <v>3497.593582250325</v>
+        <v>1825.487251830687</v>
       </c>
       <c r="W36" t="n">
-        <v>3243.356225522124</v>
+        <v>1571.249895102486</v>
       </c>
       <c r="X36" t="n">
-        <v>3035.504725316591</v>
+        <v>1363.398394896953</v>
       </c>
       <c r="Y36" t="n">
-        <v>2827.744426551637</v>
+        <v>1155.638096131999</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>86.11364943189747</v>
+        <v>775.1922355739423</v>
       </c>
       <c r="C37" t="n">
-        <v>86.11364943189747</v>
+        <v>606.2560526460354</v>
       </c>
       <c r="D37" t="n">
-        <v>86.11364943189747</v>
+        <v>533.1688994751206</v>
       </c>
       <c r="E37" t="n">
-        <v>86.11364943189747</v>
+        <v>385.2558058927275</v>
       </c>
       <c r="F37" t="n">
-        <v>86.11364943189747</v>
+        <v>238.3658583948172</v>
       </c>
       <c r="G37" t="n">
-        <v>86.11364943189747</v>
+        <v>238.3658583948172</v>
       </c>
       <c r="H37" t="n">
         <v>86.11364943189747</v>
@@ -7125,22 +7125,22 @@
         <v>1289.276287324573</v>
       </c>
       <c r="T37" t="n">
-        <v>1147.344750123074</v>
+        <v>1064.609405610903</v>
       </c>
       <c r="U37" t="n">
-        <v>858.2048585727622</v>
+        <v>1064.609405610903</v>
       </c>
       <c r="V37" t="n">
-        <v>603.5203703668753</v>
+        <v>1064.609405610903</v>
       </c>
       <c r="W37" t="n">
-        <v>314.1032003299148</v>
+        <v>775.1922355739423</v>
       </c>
       <c r="X37" t="n">
-        <v>86.11364943189747</v>
+        <v>775.1922355739423</v>
       </c>
       <c r="Y37" t="n">
-        <v>86.11364943189747</v>
+        <v>775.1922355739423</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2440.118683540002</v>
+        <v>2395.531855340898</v>
       </c>
       <c r="C38" t="n">
-        <v>2071.156166599591</v>
+        <v>2026.569338400486</v>
       </c>
       <c r="D38" t="n">
         <v>1712.89046799284</v>
@@ -7171,19 +7171,19 @@
         <v>186.4495920830057</v>
       </c>
       <c r="I38" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J38" t="n">
-        <v>316.5202242826243</v>
+        <v>316.520224282624</v>
       </c>
       <c r="K38" t="n">
-        <v>782.584757488529</v>
+        <v>782.5847574885288</v>
       </c>
       <c r="L38" t="n">
         <v>1413.055650717816</v>
       </c>
       <c r="M38" t="n">
-        <v>2131.182543644154</v>
+        <v>2131.182543644155</v>
       </c>
       <c r="N38" t="n">
         <v>2846.29748293078</v>
@@ -7195,31 +7195,31 @@
         <v>3976.452759614951</v>
       </c>
       <c r="Q38" t="n">
-        <v>4274.770370373407</v>
+        <v>4274.770370373408</v>
       </c>
       <c r="R38" t="n">
-        <v>4305.682471594872</v>
+        <v>4305.682471594873</v>
       </c>
       <c r="S38" t="n">
-        <v>4305.682471594872</v>
+        <v>4305.682471594873</v>
       </c>
       <c r="T38" t="n">
-        <v>4305.682471594872</v>
+        <v>4093.080531912926</v>
       </c>
       <c r="U38" t="n">
-        <v>4274.155156454701</v>
+        <v>3839.428996279785</v>
       </c>
       <c r="V38" t="n">
-        <v>3943.09226911113</v>
+        <v>3508.366108936214</v>
       </c>
       <c r="W38" t="n">
-        <v>3590.323613841016</v>
+        <v>3155.5974536661</v>
       </c>
       <c r="X38" t="n">
-        <v>3216.857855579936</v>
+        <v>2782.13169540502</v>
       </c>
       <c r="Y38" t="n">
-        <v>2826.718523604124</v>
+        <v>2782.13169540502</v>
       </c>
     </row>
     <row r="39">
@@ -7241,7 +7241,7 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2633071909823</v>
+        <v>358.2633071909824</v>
       </c>
       <c r="G39" t="n">
         <v>221.0905542041166</v>
@@ -7250,28 +7250,28 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I39" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J39" t="n">
-        <v>229.6488472869304</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="K39" t="n">
-        <v>339.7736208434875</v>
+        <v>211.4712094897349</v>
       </c>
       <c r="L39" t="n">
-        <v>569.7367267118366</v>
+        <v>572.5501990719266</v>
       </c>
       <c r="M39" t="n">
-        <v>1276.995942773454</v>
+        <v>1279.809415133544</v>
       </c>
       <c r="N39" t="n">
-        <v>2018.6812191562</v>
+        <v>2021.49469151629</v>
       </c>
       <c r="O39" t="n">
-        <v>2405.213465887734</v>
+        <v>2633.576141175236</v>
       </c>
       <c r="P39" t="n">
-        <v>2564.181582661907</v>
+        <v>2633.576141175236</v>
       </c>
       <c r="Q39" t="n">
         <v>2633.576141175236</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>86.11364943189744</v>
+        <v>402.9629259421975</v>
       </c>
       <c r="C40" t="n">
-        <v>86.11364943189744</v>
+        <v>234.0267430142906</v>
       </c>
       <c r="D40" t="n">
-        <v>86.11364943189744</v>
+        <v>234.0267430142906</v>
       </c>
       <c r="E40" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="F40" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="G40" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="H40" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="I40" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J40" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="K40" t="n">
         <v>212.8076375348879</v>
       </c>
       <c r="L40" t="n">
-        <v>430.4587576962464</v>
+        <v>430.4587576962465</v>
       </c>
       <c r="M40" t="n">
-        <v>670.330470062023</v>
+        <v>670.3304700620231</v>
       </c>
       <c r="N40" t="n">
-        <v>909.9331856692336</v>
+        <v>909.9331856692337</v>
       </c>
       <c r="O40" t="n">
         <v>1115.228778841303</v>
@@ -7353,31 +7353,31 @@
         <v>1267.373942480779</v>
       </c>
       <c r="Q40" t="n">
-        <v>1289.276287324572</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="R40" t="n">
-        <v>1168.92515553596</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="S40" t="n">
-        <v>1168.92515553596</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="T40" t="n">
-        <v>1168.92515553596</v>
+        <v>1202.312566673</v>
       </c>
       <c r="U40" t="n">
-        <v>1168.92515553596</v>
+        <v>913.1726751226881</v>
       </c>
       <c r="V40" t="n">
-        <v>914.2406673300728</v>
+        <v>913.1726751226881</v>
       </c>
       <c r="W40" t="n">
-        <v>624.8234972931123</v>
+        <v>623.7555050857276</v>
       </c>
       <c r="X40" t="n">
-        <v>396.8339463950949</v>
+        <v>623.7555050857276</v>
       </c>
       <c r="Y40" t="n">
-        <v>267.7621142621372</v>
+        <v>402.9629259421975</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2339.782740888894</v>
+        <v>1860.618981857838</v>
       </c>
       <c r="C41" t="n">
-        <v>1970.820223948482</v>
+        <v>1491.656464917426</v>
       </c>
       <c r="D41" t="n">
-        <v>1612.554525341732</v>
+        <v>1327.102215394596</v>
       </c>
       <c r="E41" t="n">
-        <v>1226.766272743487</v>
+        <v>1327.102215394596</v>
       </c>
       <c r="F41" t="n">
-        <v>815.7803679538799</v>
+        <v>916.1163106049881</v>
       </c>
       <c r="G41" t="n">
-        <v>399.1946814616589</v>
+        <v>499.5306241127671</v>
       </c>
       <c r="H41" t="n">
-        <v>86.11364943189747</v>
+        <v>186.4495920830057</v>
       </c>
       <c r="I41" t="n">
         <v>86.11364943189747</v>
       </c>
       <c r="J41" t="n">
-        <v>316.520224282624</v>
+        <v>316.5202242826244</v>
       </c>
       <c r="K41" t="n">
-        <v>782.5847574885288</v>
+        <v>782.5847574885292</v>
       </c>
       <c r="L41" t="n">
         <v>1413.055650717816</v>
@@ -7438,25 +7438,25 @@
         <v>4305.682471594873</v>
       </c>
       <c r="S41" t="n">
-        <v>4305.682471594873</v>
+        <v>4160.908930087625</v>
       </c>
       <c r="T41" t="n">
-        <v>4173.819213803592</v>
+        <v>3948.306990405677</v>
       </c>
       <c r="U41" t="n">
-        <v>4173.819213803592</v>
+        <v>3694.655454772536</v>
       </c>
       <c r="V41" t="n">
-        <v>3842.756326460022</v>
+        <v>3363.592567428966</v>
       </c>
       <c r="W41" t="n">
-        <v>3489.987671189907</v>
+        <v>3010.823912158851</v>
       </c>
       <c r="X41" t="n">
-        <v>3116.521912928828</v>
+        <v>2637.358153897771</v>
       </c>
       <c r="Y41" t="n">
-        <v>2726.382580953016</v>
+        <v>2247.21882192196</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>86.11364943189747</v>
       </c>
       <c r="J42" t="n">
-        <v>229.6488472869304</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="K42" t="n">
-        <v>583.0347942395817</v>
+        <v>458.0590076309074</v>
       </c>
       <c r="L42" t="n">
-        <v>812.9979001079309</v>
+        <v>1019.589838924434</v>
       </c>
       <c r="M42" t="n">
-        <v>1133.333219637633</v>
+        <v>1726.849054986051</v>
       </c>
       <c r="N42" t="n">
-        <v>1477.853875275251</v>
+        <v>2159.329883447526</v>
       </c>
       <c r="O42" t="n">
-        <v>2089.935324934197</v>
+        <v>2159.329883447526</v>
       </c>
       <c r="P42" t="n">
-        <v>2564.181582661907</v>
+        <v>2633.576141175236</v>
       </c>
       <c r="Q42" t="n">
         <v>2633.576141175236</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.408365365426</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="C43" t="n">
-        <v>402.408365365426</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="D43" t="n">
-        <v>402.408365365426</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="E43" t="n">
-        <v>254.4952717830328</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="F43" t="n">
-        <v>254.4952717830328</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="G43" t="n">
         <v>86.11364943189747</v>
@@ -7572,22 +7572,22 @@
         <v>86.11364943189747</v>
       </c>
       <c r="K43" t="n">
-        <v>212.8076375348879</v>
+        <v>212.807637534888</v>
       </c>
       <c r="L43" t="n">
-        <v>430.4587576962465</v>
+        <v>430.4587576962466</v>
       </c>
       <c r="M43" t="n">
-        <v>670.3304700620231</v>
+        <v>670.3304700620233</v>
       </c>
       <c r="N43" t="n">
-        <v>909.9331856692337</v>
+        <v>909.933185669234</v>
       </c>
       <c r="O43" t="n">
-        <v>1115.228778841303</v>
+        <v>1115.228778841304</v>
       </c>
       <c r="P43" t="n">
-        <v>1267.373942480779</v>
+        <v>1267.37394248078</v>
       </c>
       <c r="Q43" t="n">
         <v>1289.276287324573</v>
@@ -7596,25 +7596,25 @@
         <v>1289.276287324573</v>
       </c>
       <c r="S43" t="n">
-        <v>1289.276287324573</v>
+        <v>1085.761019183557</v>
       </c>
       <c r="T43" t="n">
-        <v>1289.276287324573</v>
+        <v>1085.761019183557</v>
       </c>
       <c r="U43" t="n">
-        <v>1105.87498361286</v>
+        <v>796.6211276332444</v>
       </c>
       <c r="V43" t="n">
-        <v>851.1904954069735</v>
+        <v>603.5203703668753</v>
       </c>
       <c r="W43" t="n">
-        <v>851.1904954069735</v>
+        <v>314.1032003299148</v>
       </c>
       <c r="X43" t="n">
-        <v>623.2009445089561</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="Y43" t="n">
-        <v>402.408365365426</v>
+        <v>86.11364943189747</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2339.782740888894</v>
+        <v>2127.037651510241</v>
       </c>
       <c r="C44" t="n">
-        <v>1970.820223948482</v>
+        <v>1758.075134569829</v>
       </c>
       <c r="D44" t="n">
-        <v>1612.554525341732</v>
+        <v>1399.809435963079</v>
       </c>
       <c r="E44" t="n">
-        <v>1226.766272743487</v>
+        <v>1014.021183364834</v>
       </c>
       <c r="F44" t="n">
-        <v>815.7803679538799</v>
+        <v>603.0352785752268</v>
       </c>
       <c r="G44" t="n">
-        <v>399.1946814616589</v>
+        <v>186.4495920830057</v>
       </c>
       <c r="H44" t="n">
-        <v>86.11364943189747</v>
+        <v>186.4495920830057</v>
       </c>
       <c r="I44" t="n">
         <v>86.11364943189747</v>
       </c>
       <c r="J44" t="n">
-        <v>316.5202242826244</v>
+        <v>316.5202242826243</v>
       </c>
       <c r="K44" t="n">
-        <v>782.5847574885292</v>
+        <v>782.5847574885281</v>
       </c>
       <c r="L44" t="n">
         <v>1413.055650717816</v>
       </c>
       <c r="M44" t="n">
-        <v>2131.182543644155</v>
+        <v>2131.182543644154</v>
       </c>
       <c r="N44" t="n">
         <v>2846.29748293078</v>
@@ -7675,25 +7675,25 @@
         <v>4305.682471594873</v>
       </c>
       <c r="S44" t="n">
-        <v>4173.819213803592</v>
+        <v>4305.682471594873</v>
       </c>
       <c r="T44" t="n">
-        <v>4173.819213803592</v>
+        <v>4093.080531912926</v>
       </c>
       <c r="U44" t="n">
-        <v>4173.819213803592</v>
+        <v>3961.074124424939</v>
       </c>
       <c r="V44" t="n">
-        <v>3842.756326460022</v>
+        <v>3630.011237081369</v>
       </c>
       <c r="W44" t="n">
-        <v>3489.987671189907</v>
+        <v>3277.242581811254</v>
       </c>
       <c r="X44" t="n">
-        <v>3116.521912928828</v>
+        <v>2903.776823550174</v>
       </c>
       <c r="Y44" t="n">
-        <v>2726.382580953016</v>
+        <v>2513.637491574363</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>86.11364943189747</v>
       </c>
       <c r="J45" t="n">
-        <v>229.6488472869305</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="K45" t="n">
-        <v>355.0064073447679</v>
+        <v>458.0590076309074</v>
       </c>
       <c r="L45" t="n">
-        <v>584.969513213117</v>
+        <v>920.3083541146373</v>
       </c>
       <c r="M45" t="n">
-        <v>1292.228729274734</v>
+        <v>1627.567570176255</v>
       </c>
       <c r="N45" t="n">
-        <v>1769.45665538961</v>
+        <v>2369.252846559001</v>
       </c>
       <c r="O45" t="n">
-        <v>2381.538105048556</v>
+        <v>2369.252846559001</v>
       </c>
       <c r="P45" t="n">
-        <v>2564.181582661907</v>
+        <v>2369.252846559001</v>
       </c>
       <c r="Q45" t="n">
         <v>2633.576141175236</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>405.1664717721401</v>
+        <v>851.6671612385918</v>
       </c>
       <c r="C46" t="n">
-        <v>236.2302888442332</v>
+        <v>851.6671612385918</v>
       </c>
       <c r="D46" t="n">
-        <v>86.11364943189747</v>
+        <v>701.550521826256</v>
       </c>
       <c r="E46" t="n">
-        <v>86.11364943189747</v>
+        <v>553.6374282438629</v>
       </c>
       <c r="F46" t="n">
-        <v>86.11364943189747</v>
+        <v>406.7474807459525</v>
       </c>
       <c r="G46" t="n">
-        <v>86.11364943189747</v>
+        <v>238.3658583948172</v>
       </c>
       <c r="H46" t="n">
         <v>86.11364943189747</v>
@@ -7836,22 +7836,22 @@
         <v>1289.276287324573</v>
       </c>
       <c r="T46" t="n">
-        <v>1289.276287324573</v>
+        <v>1064.609405610903</v>
       </c>
       <c r="U46" t="n">
-        <v>1289.276287324573</v>
+        <v>1064.609405610903</v>
       </c>
       <c r="V46" t="n">
-        <v>1034.591799118686</v>
+        <v>851.6671612385918</v>
       </c>
       <c r="W46" t="n">
-        <v>745.1746290817255</v>
+        <v>851.6671612385918</v>
       </c>
       <c r="X46" t="n">
-        <v>517.1850781837081</v>
+        <v>851.6671612385918</v>
       </c>
       <c r="Y46" t="n">
-        <v>405.1664717721401</v>
+        <v>851.6671612385918</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8072,13 +8072,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,10 +8306,10 @@
         <v>368.5691090902119</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8537,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9014,7 +9014,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>138.5151378617663</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>6.233205181928668</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>203.6824428375702</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9731,10 +9731,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10442,10 +10442,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>230.5877925588853</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10682,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>168.3637375142325</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10919,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11153,13 +11153,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711637</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11390,10 +11390,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23260,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>97.24618356273191</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>103.5856106186214</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>79.04232329067776</v>
       </c>
       <c r="G13" t="n">
         <v>166.9207765545704</v>
@@ -23436,7 +23436,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>153.1604737987896</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>252.262969653399</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
-        <v>137.2735902596933</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>160.207381663943</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,13 +23670,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>18.73860306464422</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>195.7095743675977</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>117.2289406413146</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,10 +23788,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>85.51665180313162</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.9207765545704</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>123.1574916001082</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S19" t="n">
         <v>205.3658819001187</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>111.7868677380452</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>170.4750966156677</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>123.2665578794171</v>
@@ -24180,19 +24180,19 @@
         <v>205.3658819001187</v>
       </c>
       <c r="T22" t="n">
-        <v>58.35886639452562</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>134.11124751824</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,16 +24208,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>208.4318128943349</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>99.33258322459717</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>67.49607569903503</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>51.75329177382321</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>116.5612290399728</v>
       </c>
       <c r="J25" t="n">
         <v>1.931832696654993</v>
@@ -24417,13 +24417,13 @@
         <v>201.4801154596064</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U25" t="n">
-        <v>123.4892515912758</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>44.14095991711309</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T26" t="n">
-        <v>166.8286589236309</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24606,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>116.5612290399728</v>
       </c>
       <c r="J28" t="n">
         <v>1.931832696654993</v>
@@ -24651,16 +24651,16 @@
         <v>119.1476204707264</v>
       </c>
       <c r="S28" t="n">
-        <v>201.4801154596064</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>256.0996851862517</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>57.67845113761899</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>187.4667660092901</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>99.33258322459717</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>91.63827977726555</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>166.4304286789874</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H31" t="n">
         <v>150.7296868732905</v>
@@ -24861,7 +24861,7 @@
         <v>116.5612290399728</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.931832696654993</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>201.4801154596064</v>
       </c>
       <c r="T31" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.248492634809</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>14.24415178433605</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>44.14095991711417</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>119.6890798200632</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>99.33258322459717</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.697806127624</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>93.70620787339898</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>116.012728660792</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>208.431812894335</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>99.33258322459717</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>120.5703950634411</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>76.25919137900671</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.697806127624</v>
       </c>
       <c r="H37" t="n">
-        <v>150.7296868732905</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>116.5612290399728</v>
@@ -25365,19 +25365,19 @@
         <v>201.4801154596064</v>
       </c>
       <c r="T37" t="n">
-        <v>81.90799106704969</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>44.14095991711326</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>143.3258060921758</v>
       </c>
       <c r="T38" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>219.9029782880397</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S40" t="n">
         <v>201.4801154596064</v>
       </c>
       <c r="T40" t="n">
-        <v>222.420212896533</v>
+        <v>136.3261294514763</v>
       </c>
       <c r="U40" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.80353954046663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>191.7743345930807</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>99.33258322459717</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>79.93129507175951</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1150202768096</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H43" t="n">
         <v>150.7296868732905</v>
@@ -25809,7 +25809,7 @@
         <v>116.5612290399728</v>
       </c>
       <c r="J43" t="n">
-        <v>1.931832696654993</v>
+        <v>1.931832696654965</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>119.1476204707264</v>
       </c>
       <c r="S43" t="n">
-        <v>201.4801154596064</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>222.420212896533</v>
+        <v>222.4202128965329</v>
       </c>
       <c r="U43" t="n">
-        <v>104.6812019602139</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>60.9678936301226</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>309.9502217094637</v>
       </c>
       <c r="I44" t="n">
-        <v>99.33258322459714</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>12.78118087880728</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T44" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1150202768096</v>
+        <v>120.4286768637029</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>150.7296868732905</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>116.5612290399728</v>
@@ -26076,22 +26076,22 @@
         <v>201.4801154596064</v>
       </c>
       <c r="T46" t="n">
-        <v>222.4202128965329</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.248492634809</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>41.32482139523952</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>107.6862330046424</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>675471.3113866471</v>
+        <v>675471.3113866472</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>675471.3113866472</v>
+        <v>675471.3113866469</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>731104.7100915953</v>
+        <v>731104.7100915951</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731104.7100915954</v>
+        <v>731104.7100915953</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>731104.7100915951</v>
+        <v>731104.7100915953</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>731104.7100915952</v>
+        <v>731104.7100915953</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982122</v>
       </c>
       <c r="E2" t="n">
-        <v>506603.4835399849</v>
+        <v>506603.483539985</v>
       </c>
       <c r="F2" t="n">
         <v>506603.483539985</v>
       </c>
       <c r="G2" t="n">
-        <v>506603.4835399851</v>
+        <v>506603.4835399849</v>
       </c>
       <c r="H2" t="n">
         <v>506603.483539985</v>
       </c>
       <c r="I2" t="n">
-        <v>548328.532568696</v>
+        <v>548328.5325686957</v>
       </c>
       <c r="J2" t="n">
-        <v>548328.5325686957</v>
+        <v>548328.5325686961</v>
       </c>
       <c r="K2" t="n">
         <v>548328.5325686961</v>
       </c>
       <c r="L2" t="n">
-        <v>548328.5325686957</v>
+        <v>548328.532568696</v>
       </c>
       <c r="M2" t="n">
+        <v>548328.532568696</v>
+      </c>
+      <c r="N2" t="n">
         <v>548328.5325686958</v>
       </c>
-      <c r="N2" t="n">
-        <v>548328.5325686961</v>
-      </c>
       <c r="O2" t="n">
-        <v>548328.5325686962</v>
+        <v>548328.532568696</v>
       </c>
       <c r="P2" t="n">
-        <v>548328.5325686961</v>
+        <v>548328.5325686958</v>
       </c>
     </row>
     <row r="3">
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>133368.5290586868</v>
+        <v>133368.5290586867</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910629</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>279125.0601321633</v>
+      </c>
+      <c r="C4" t="n">
         <v>279125.0601321634</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>279125.0601321633</v>
-      </c>
-      <c r="D4" t="n">
-        <v>279125.0601321634</v>
       </c>
       <c r="E4" t="n">
         <v>639.5264553066582</v>
@@ -26456,10 +26456,10 @@
         <v>716.3121078841129</v>
       </c>
       <c r="O4" t="n">
+        <v>716.3121078841132</v>
+      </c>
+      <c r="P4" t="n">
         <v>716.3121078841129</v>
-      </c>
-      <c r="P4" t="n">
-        <v>716.3121078841132</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360136</v>
+        <v>69171.54328360138</v>
       </c>
       <c r="F5" t="n">
         <v>69171.54328360136</v>
@@ -26490,7 +26490,7 @@
         <v>69171.54328360138</v>
       </c>
       <c r="I5" t="n">
-        <v>81079.66231700634</v>
+        <v>81079.66231700632</v>
       </c>
       <c r="J5" t="n">
         <v>81079.66231700634</v>
@@ -26505,7 +26505,7 @@
         <v>81079.66231700634</v>
       </c>
       <c r="N5" t="n">
-        <v>81079.66231700632</v>
+        <v>81079.66231700634</v>
       </c>
       <c r="O5" t="n">
         <v>81079.66231700634</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>207605.5669707397</v>
+        <v>207605.5669707398</v>
       </c>
       <c r="C6" t="n">
-        <v>288374.9985022871</v>
+        <v>288374.9985022872</v>
       </c>
       <c r="D6" t="n">
         <v>288374.9985022871</v>
       </c>
       <c r="E6" t="n">
-        <v>-244200.528860762</v>
+        <v>-247839.7903227028</v>
       </c>
       <c r="F6" t="n">
-        <v>436792.4138010769</v>
+        <v>433153.1523391361</v>
       </c>
       <c r="G6" t="n">
-        <v>436792.4138010771</v>
+        <v>433153.1523391359</v>
       </c>
       <c r="H6" t="n">
-        <v>436792.4138010769</v>
+        <v>433153.152339136</v>
       </c>
       <c r="I6" t="n">
-        <v>333164.0290851187</v>
+        <v>330915.6025908014</v>
       </c>
       <c r="J6" t="n">
-        <v>403472.6155446991</v>
+        <v>401224.1890503822</v>
       </c>
       <c r="K6" t="n">
-        <v>466532.5581438057</v>
+        <v>464284.1316494885</v>
       </c>
       <c r="L6" t="n">
-        <v>466532.5581438053</v>
+        <v>464284.1316494884</v>
       </c>
       <c r="M6" t="n">
-        <v>296106.1415800944</v>
+        <v>293857.7150857773</v>
       </c>
       <c r="N6" t="n">
-        <v>466532.5581438057</v>
+        <v>464284.1316494882</v>
       </c>
       <c r="O6" t="n">
-        <v>466532.5581438058</v>
+        <v>464284.1316494884</v>
       </c>
       <c r="P6" t="n">
-        <v>466532.5581438057</v>
+        <v>464284.1316494882</v>
       </c>
     </row>
   </sheetData>
@@ -26776,7 +26776,7 @@
         <v>717.123337099278</v>
       </c>
       <c r="O3" t="n">
-        <v>717.123337099278</v>
+        <v>717.1233370992783</v>
       </c>
       <c r="P3" t="n">
         <v>717.1233370992783</v>
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827563</v>
+        <v>924.8974390827564</v>
       </c>
       <c r="F4" t="n">
         <v>924.8974390827563</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>151.5231788159618</v>
+        <v>151.5231788159616</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776593</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27432,7 +27432,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>54.92923574669314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>161.0353883392329</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,22 +27511,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>208.3241800125849</v>
       </c>
       <c r="V3" t="n">
-        <v>164.3828469870558</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>351.1641048164582</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>313.0250335275967</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>120.4592573625854</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27718,7 +27718,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27751,19 +27751,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>203.6756636163529</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>140.6752909808566</v>
+        <v>329.5095000026829</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>165.8617568640524</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,19 +27931,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>43.16495137196441</v>
       </c>
       <c r="C9" t="n">
-        <v>144.3807416476821</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27952,10 +27952,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27985,19 +27985,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71.63594515755861</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -31840,16 +31840,16 @@
         <v>43.95082441182829</v>
       </c>
       <c r="J12" t="n">
-        <v>120.604421484738</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842445</v>
+        <v>56.21243142356133</v>
       </c>
       <c r="N12" t="n">
         <v>332.0050874900644</v>
@@ -31861,7 +31861,7 @@
         <v>243.7619099671567</v>
       </c>
       <c r="Q12" t="n">
-        <v>53.02864329286359</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R12" t="n">
         <v>79.25705355080783</v>
@@ -32077,7 +32077,7 @@
         <v>43.9508244118283</v>
       </c>
       <c r="J15" t="n">
-        <v>120.604421484738</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -32086,7 +32086,7 @@
         <v>277.1701353512815</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N15" t="n">
         <v>332.0050874900645</v>
@@ -32095,10 +32095,10 @@
         <v>303.7197925947069</v>
       </c>
       <c r="P15" t="n">
-        <v>39.34509999827637</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R15" t="n">
         <v>79.25705355080784</v>
@@ -32314,7 +32314,7 @@
         <v>43.9508244118283</v>
       </c>
       <c r="J18" t="n">
-        <v>120.604421484738</v>
+        <v>11.69235200139008</v>
       </c>
       <c r="K18" t="n">
         <v>206.1321659070423</v>
@@ -32329,13 +32329,13 @@
         <v>332.0050874900645</v>
       </c>
       <c r="O18" t="n">
-        <v>3.441595810003832</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>79.25705355080784</v>
@@ -32551,28 +32551,28 @@
         <v>43.9508244118283</v>
       </c>
       <c r="J21" t="n">
-        <v>120.604421484738</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>206.1321659070423</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>277.1701353512815</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N21" t="n">
-        <v>165.2180215812984</v>
+        <v>332.0050874900645</v>
       </c>
       <c r="O21" t="n">
         <v>303.7197925947069</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R21" t="n">
         <v>79.25705355080784</v>
@@ -32788,25 +32788,25 @@
         <v>53.10771883235221</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>249.0785839809823</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>334.9168943688657</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>390.8322187191065</v>
       </c>
       <c r="N24" t="n">
-        <v>401.1763845910386</v>
+        <v>300.8920565003353</v>
       </c>
       <c r="O24" t="n">
-        <v>366.998015732307</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>71.79091718805228</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>196.8977132352584</v>
@@ -33025,28 +33025,28 @@
         <v>53.10771883235221</v>
       </c>
       <c r="J27" t="n">
-        <v>145.731639664675</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>334.9168943688657</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>390.8322187191065</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>146.4965838800121</v>
       </c>
       <c r="O27" t="n">
-        <v>236.2243829700943</v>
+        <v>366.998015732307</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>294.5482627417771</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>196.8977132352584</v>
       </c>
       <c r="R27" t="n">
         <v>95.76979207525834</v>
@@ -33262,7 +33262,7 @@
         <v>53.10771883235221</v>
       </c>
       <c r="J30" t="n">
-        <v>145.731639664675</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -33271,16 +33271,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>390.8322187191065</v>
+        <v>333.0501312433386</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>401.1763845910386</v>
       </c>
       <c r="O30" t="n">
         <v>366.998015732307</v>
       </c>
       <c r="P30" t="n">
-        <v>134.0477479568261</v>
+        <v>294.5482627417771</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -33499,19 +33499,19 @@
         <v>53.10771883235221</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>249.0785839809823</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>334.9168943688657</v>
       </c>
       <c r="M33" t="n">
         <v>390.8322187191065</v>
       </c>
       <c r="N33" t="n">
-        <v>396.9522280465678</v>
+        <v>401.1763845910386</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33736,25 +33736,25 @@
         <v>53.10771883235221</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>249.0785839809823</v>
+        <v>164.5214079430802</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>334.9168943688657</v>
       </c>
       <c r="M36" t="n">
         <v>390.8322187191065</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>401.1763845910386</v>
       </c>
       <c r="O36" t="n">
-        <v>366.998015732307</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>29.95421231426025</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -33973,13 +33973,13 @@
         <v>53.10771883235221</v>
       </c>
       <c r="J39" t="n">
-        <v>145.731639664675</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>249.0785839809823</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>334.9168943688657</v>
       </c>
       <c r="M39" t="n">
         <v>390.8322187191065</v>
@@ -33988,10 +33988,10 @@
         <v>401.1763845910386</v>
       </c>
       <c r="O39" t="n">
-        <v>139.1705380278506</v>
+        <v>366.998015732307</v>
       </c>
       <c r="P39" t="n">
-        <v>294.5482627417771</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.882907887836291</v>
+        <v>2.882907887836292</v>
       </c>
       <c r="H41" t="n">
-        <v>29.52458040630343</v>
+        <v>29.52458040630344</v>
       </c>
       <c r="I41" t="n">
-        <v>111.1433063458087</v>
+        <v>111.1433063458088</v>
       </c>
       <c r="J41" t="n">
         <v>244.6832033452457</v>
       </c>
       <c r="K41" t="n">
-        <v>366.716694237356</v>
+        <v>366.7166942373561</v>
       </c>
       <c r="L41" t="n">
-        <v>454.9444865097259</v>
+        <v>454.9444865097261</v>
       </c>
       <c r="M41" t="n">
-        <v>506.2133996600346</v>
+        <v>506.2133996600347</v>
       </c>
       <c r="N41" t="n">
-        <v>514.4044616963495</v>
+        <v>514.4044616963497</v>
       </c>
       <c r="O41" t="n">
-        <v>485.7375463866773</v>
+        <v>485.7375463866775</v>
       </c>
       <c r="P41" t="n">
-        <v>414.5657579057188</v>
+        <v>414.565757905719</v>
       </c>
       <c r="Q41" t="n">
         <v>311.3216191725816</v>
       </c>
       <c r="R41" t="n">
-        <v>181.0934626092966</v>
+        <v>181.0934626092967</v>
       </c>
       <c r="S41" t="n">
-        <v>65.69426349406956</v>
+        <v>65.69426349406957</v>
       </c>
       <c r="T41" t="n">
-        <v>12.61992927900337</v>
+        <v>12.61992927900338</v>
       </c>
       <c r="U41" t="n">
         <v>0.2306326310269033</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.542491706213541</v>
+        <v>1.542491706213542</v>
       </c>
       <c r="H42" t="n">
-        <v>14.89722253106236</v>
+        <v>14.89722253106237</v>
       </c>
       <c r="I42" t="n">
-        <v>53.10771883235221</v>
+        <v>53.10771883235222</v>
       </c>
       <c r="J42" t="n">
-        <v>145.731639664675</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>230.3317039341554</v>
+        <v>249.0785839809824</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>334.9168943688658</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>390.8322187191066</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>88.84865941803719</v>
       </c>
       <c r="O42" t="n">
-        <v>366.998015732307</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>294.5482627417771</v>
+        <v>294.5482627417772</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>95.76979207525834</v>
+        <v>95.76979207525837</v>
       </c>
       <c r="S42" t="n">
-        <v>28.65110691146642</v>
+        <v>28.65110691146643</v>
       </c>
       <c r="T42" t="n">
-        <v>6.217324026360719</v>
+        <v>6.217324026360722</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1014797175140488</v>
+        <v>0.1014797175140489</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.293173230834763</v>
+        <v>1.293173230834764</v>
       </c>
       <c r="H43" t="n">
         <v>11.49748563414909</v>
       </c>
       <c r="I43" t="n">
-        <v>38.88924588728545</v>
+        <v>38.88924588728546</v>
       </c>
       <c r="J43" t="n">
-        <v>91.42734742001778</v>
+        <v>91.42734742001781</v>
       </c>
       <c r="K43" t="n">
         <v>150.2432171824389</v>
       </c>
       <c r="L43" t="n">
-        <v>192.2595910642884</v>
+        <v>192.2595910642885</v>
       </c>
       <c r="M43" t="n">
-        <v>202.7107819934893</v>
+        <v>202.7107819934894</v>
       </c>
       <c r="N43" t="n">
-        <v>197.8907726785599</v>
+        <v>197.89077267856</v>
       </c>
       <c r="O43" t="n">
-        <v>182.7841581183537</v>
+        <v>182.7841581183538</v>
       </c>
       <c r="P43" t="n">
-        <v>156.4034242093244</v>
+        <v>156.4034242093245</v>
       </c>
       <c r="Q43" t="n">
         <v>108.285623901991</v>
       </c>
       <c r="R43" t="n">
-        <v>58.14577090644308</v>
+        <v>58.1457709064431</v>
       </c>
       <c r="S43" t="n">
         <v>22.53648257736583</v>
       </c>
       <c r="T43" t="n">
-        <v>5.525376531748534</v>
+        <v>5.525376531748535</v>
       </c>
       <c r="U43" t="n">
-        <v>0.07053672168189627</v>
+        <v>0.0705367216818963</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34447,28 +34447,28 @@
         <v>53.10771883235222</v>
       </c>
       <c r="J45" t="n">
-        <v>145.731639664675</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>249.0785839809824</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>234.6325662781623</v>
       </c>
       <c r="M45" t="n">
         <v>390.8322187191066</v>
       </c>
       <c r="N45" t="n">
-        <v>134.0477479568256</v>
+        <v>401.1763845910387</v>
       </c>
       <c r="O45" t="n">
-        <v>366.9980157323071</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>196.8977132352585</v>
       </c>
       <c r="R45" t="n">
         <v>95.76979207525837</v>
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34792,13 +34792,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35026,10 +35026,10 @@
         <v>226.4350751681936</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35257,16 +35257,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8578301584801</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M12" t="n">
-        <v>647.0155045122261</v>
+        <v>379.7834612515429</v>
       </c>
       <c r="N12" t="n">
         <v>680.0057497502846</v>
@@ -35509,7 +35509,7 @@
         <v>428.2502711927636</v>
       </c>
       <c r="Q12" t="n">
-        <v>123.1241569426912</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584802</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>126.6237980382196</v>
@@ -35734,7 +35734,7 @@
         <v>509.4561008748665</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>319.8255786239926</v>
       </c>
       <c r="N15" t="n">
         <v>680.0057497502846</v>
@@ -35743,10 +35743,10 @@
         <v>554.9858674269919</v>
       </c>
       <c r="P15" t="n">
-        <v>223.8334612238833</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>10.94576067513222</v>
       </c>
       <c r="K18" t="n">
         <v>332.755963945262</v>
@@ -35977,10 +35977,10 @@
         <v>680.0057497502846</v>
       </c>
       <c r="O18" t="n">
-        <v>254.7076706422889</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>119.8578301584802</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>332.755963945262</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748665</v>
+        <v>65.12806305769602</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>647.0155045122262</v>
       </c>
       <c r="N21" t="n">
-        <v>513.2186838415187</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O21" t="n">
         <v>554.9858674269919</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>375.7023820192019</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>567.2028598924508</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>714.4032485470881</v>
       </c>
       <c r="N24" t="n">
-        <v>749.1770468512589</v>
+        <v>648.8927187605556</v>
       </c>
       <c r="O24" t="n">
-        <v>618.264090564592</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>256.2792784136592</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>266.993226885086</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>144.9850483384172</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>567.2028598924508</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>714.4032485470881</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>494.4972461402323</v>
       </c>
       <c r="O27" t="n">
-        <v>487.4904578023794</v>
+        <v>618.264090564592</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>479.036623967384</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>266.993226885086</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>636.4395162277359</v>
       </c>
       <c r="P29" t="n">
-        <v>505.1314703219319</v>
+        <v>505.1314703219318</v>
       </c>
       <c r="Q29" t="n">
         <v>301.3309199580368</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>144.9850483384172</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>714.4032485470881</v>
+        <v>656.6211610713202</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>749.1770468512589</v>
       </c>
       <c r="O30" t="n">
         <v>618.264090564592</v>
       </c>
       <c r="P30" t="n">
-        <v>318.5361091824331</v>
+        <v>479.036623967384</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37153,19 +37153,19 @@
         <v>375.7023820192019</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>567.2028598924508</v>
       </c>
       <c r="M33" t="n">
         <v>714.4032485470881</v>
       </c>
       <c r="N33" t="n">
-        <v>744.952890306788</v>
+        <v>749.1770468512589</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>96.6133851445551</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>375.7023820192019</v>
+        <v>291.1452059812998</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>567.2028598924508</v>
       </c>
       <c r="M36" t="n">
         <v>714.4032485470881</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>749.1770468512589</v>
       </c>
       <c r="O36" t="n">
-        <v>618.264090564592</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>214.4425735398672</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>144.9850483384172</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>111.2371450066233</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>364.726252103224</v>
       </c>
       <c r="M39" t="n">
         <v>714.4032485470881</v>
@@ -37636,13 +37636,13 @@
         <v>749.1770468512589</v>
       </c>
       <c r="O39" t="n">
-        <v>390.4366128601357</v>
+        <v>618.264090564592</v>
       </c>
       <c r="P39" t="n">
-        <v>160.5738553274468</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>232.7339139906331</v>
+        <v>232.7339139906332</v>
       </c>
       <c r="K41" t="n">
-        <v>470.7722557635402</v>
+        <v>470.7722557635403</v>
       </c>
       <c r="L41" t="n">
-        <v>636.8392860901891</v>
+        <v>636.8392860901893</v>
       </c>
       <c r="M41" t="n">
-        <v>725.3806999255943</v>
+        <v>725.3806999255945</v>
       </c>
       <c r="N41" t="n">
-        <v>722.3383225117427</v>
+        <v>722.3383225117429</v>
       </c>
       <c r="O41" t="n">
-        <v>636.4395162277359</v>
+        <v>636.4395162277361</v>
       </c>
       <c r="P41" t="n">
-        <v>505.1314703219319</v>
+        <v>505.1314703219321</v>
       </c>
       <c r="Q41" t="n">
         <v>301.3309199580368</v>
       </c>
       <c r="R41" t="n">
-        <v>31.22434466814693</v>
+        <v>31.22434466814698</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>144.9850483384172</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>356.955501972375</v>
+        <v>375.702382019202</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>567.2028598924508</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>714.4032485470882</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>436.8493216782574</v>
       </c>
       <c r="O42" t="n">
-        <v>618.264090564592</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>479.036623967384</v>
+        <v>479.0366239673841</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>127.973725356556</v>
+        <v>127.9737253565561</v>
       </c>
       <c r="L43" t="n">
         <v>219.8496163246046</v>
       </c>
       <c r="M43" t="n">
-        <v>242.2946589553299</v>
+        <v>242.29465895533</v>
       </c>
       <c r="N43" t="n">
-        <v>242.0229450577885</v>
+        <v>242.0229450577886</v>
       </c>
       <c r="O43" t="n">
-        <v>207.3692860323934</v>
+        <v>207.3692860323935</v>
       </c>
       <c r="P43" t="n">
-        <v>153.6819834742179</v>
+        <v>153.681983474218</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.1235806502966</v>
+        <v>22.12358065029663</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>232.7339139906332</v>
       </c>
       <c r="K44" t="n">
-        <v>470.7722557635403</v>
+        <v>470.7722557635392</v>
       </c>
       <c r="L44" t="n">
         <v>636.8392860901893</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>144.9850483384172</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>375.702382019202</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>466.9185318017473</v>
       </c>
       <c r="M45" t="n">
         <v>714.4032485470882</v>
       </c>
       <c r="N45" t="n">
-        <v>482.0484102170458</v>
+        <v>749.1770468512589</v>
       </c>
       <c r="O45" t="n">
-        <v>618.2640905645922</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>266.9932268850861</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
